--- a/input/ToolTaiAnhTheoLinkSanPham/urlsLinkSanPhamKhongTheoMau.xlsx
+++ b/input/ToolTaiAnhTheoLinkSanPham/urlsLinkSanPhamKhongTheoMau.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>url</t>
   </si>
@@ -43,50 +43,200 @@
     <t>max</t>
   </si>
   <si>
-    <t>https://www.tiktok.com/t/ZPHWYC68RgpqJ-Ji0iQ/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWYCkb8C9vv-khqwy/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWYCAvfY3Gf-laRjp/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWYCmRnhHpg-UuNvk/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWYCuqbYQdN-NmDj2/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWYCbJusLtH-rDDQe/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWY4Lu2j6cE-6FSyu/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWY4jqT7bAB-2EV1u/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWY4BSAYj19-HVb6v/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWY4BMe25p8-iJBh5/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWY4y5CPbnX-qj2i1/</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/t/ZPHWY44Df8WW3-FyjHK/</t>
-  </si>
-  <si>
-    <t>datatesst</t>
+    <t>https://www.tiktok.com/t/ZPHT6kUtdxa6H-UlLEj/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6kUK75STh-OaqqN/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6kHgPAfCp-dBLbx/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6kCXgGXwr-IAAbZ/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6k4eqs413-w0dO4/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6kbfTt2vp-gwSR6/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6knAJE6LT-dVT9T/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6kwbqoH2T-gcDGo/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6BJedGR3A-EbOA8/</t>
+  </si>
+  <si>
+    <t>JSTANKTOP2611</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6BFUBSL21-5zQm4/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6BkYXcesc-5nfWu/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6BSor93cW-ihZj6/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6BfGUjt1n-Pgag1/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6BPGHfxSH-xnoy4/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6BmFtvsSu-qUN8O/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6Bt51rf4S-B4aOl/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6Sd6H5qos-LkmWD/</t>
+  </si>
+  <si>
+    <t>GiayGoiQua2611</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6S5JJQAE6-7o9CP/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6S9ap65tE-YNLts/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6SxfDwRPS-M2crR/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6SQHG6mEP-tFHuk/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6SCChF3Ck-0rnwS/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6S41eDhho-H7Wne/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6SbNSS1JW-8oZ3v/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6SgWEa3VC-XA7kB/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6SpUHksbR-CYWvu/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6SGSmUAQT-Jgrds/</t>
+  </si>
+  <si>
+    <t>BocBienXe2611</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6AmRy6ksF-vc5JH/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6A96DH4RP-ymwy5/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6ACJepKVG-PDRMa/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6A4UkJTgK-M4s7F/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6AgTrFg8A-XG1xZ/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6AG2Q1nuu-mHNHh/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6AWLmHx6K-jqXC7/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6AcMMwMW4-cPMtL/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6AoNF2X63-uBRKX/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DJf7qAcm-Z0fh3/</t>
+  </si>
+  <si>
+    <t>PC2611</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DLnKdE4c-kfdEO/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DFNrp799-O9Hps/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DMovm5Gv-WwNh1/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6Dk9gdRmo-ZJufm/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DUaQq1w7-gR8xA/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DmmsX56J-jajLb/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DQj2Pp7P-RaFx0/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DXQdxVUp-I3FWx/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DVkGYWbH-IdRUD/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6Dg1Vp7wx-DQp6v/</t>
+  </si>
+  <si>
+    <t>Hat2611</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6Dnm5f5D5-WCpN8/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6D7A9DMU1-CwBCG/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6D7V92THo-KvEr9/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6Dvxt3rBX-DQ5Rr/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DTCgVt1L-y8cZS/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DEM63GDF-EwQ27/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6DoJ2RjYV-b7Nga/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6UJ1SMnBM-j4W6R/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6UehF2REb-D8bte/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/t/ZPHT6Ud2Ldq37-QbH2M/</t>
+  </si>
+  <si>
+    <t>SWT2611</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,18 +245,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -140,12 +296,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -153,13 +369,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,15 +663,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
@@ -465,135 +690,1021 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A62" s="4"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A64" s="4"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A65" s="4"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A66" s="4"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A67" s="4"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A68" s="4"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A69" s="4"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A71" s="4"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A73" s="4"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A74" s="4"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A76" s="4"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A77" s="4"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A78" s="4"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A79" s="4"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A80" s="4"/>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A81" s="4"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A82" s="4"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A83" s="4"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A84" s="4"/>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A85" s="4"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A86" s="4"/>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A87" s="4"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A88" s="4"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A89" s="4"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A90" s="4"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A91" s="4"/>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A92" s="4"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A93" s="4"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A94" s="4"/>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A95" s="4"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A96" s="4"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A97" s="4"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A98" s="4"/>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A99" s="4"/>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A100" s="4"/>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A101" s="4"/>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A102" s="4"/>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A103" s="4"/>
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A104" s="4"/>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A105" s="4"/>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A106" s="4"/>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A107" s="4"/>
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A108" s="4"/>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A109" s="4"/>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A110" s="4"/>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A111" s="4"/>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A112" s="4"/>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A113" s="4"/>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A114" s="4"/>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A115" s="4"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A116" s="4"/>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A117" s="4"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A118" s="4"/>
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A119" s="4"/>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A120" s="4"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A121" s="4"/>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A122" s="4"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A123" s="4"/>
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A124" s="4"/>
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A125" s="4"/>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A126" s="4"/>
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A127" s="4"/>
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A128" s="4"/>
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A129" s="4"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A130" s="4"/>
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A131" s="4"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A132" s="4"/>
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A133" s="4"/>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A134" s="4"/>
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A135" s="4"/>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A136" s="4"/>
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A137" s="4"/>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A138" s="4"/>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A139" s="4"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A140" s="4"/>
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A141" s="4"/>
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A142" s="4"/>
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A143" s="4"/>
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A144" s="4"/>
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A145" s="4"/>
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A146" s="4"/>
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A147" s="4"/>
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A148" s="4"/>
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A149" s="4"/>
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A150" s="4"/>
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A151" s="4"/>
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A152" s="4"/>
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A153" s="4"/>
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A154" s="4"/>
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A155" s="4"/>
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A156" s="4"/>
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A157" s="4"/>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A158" s="4"/>
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A159" s="4"/>
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A160" s="4"/>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A161" s="4"/>
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A162" s="4"/>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A163" s="4"/>
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A164" s="4"/>
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A165" s="4"/>
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A166" s="4"/>
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A167" s="4"/>
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A168" s="4"/>
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A169" s="4"/>
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A170" s="4"/>
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A171" s="4"/>
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A172" s="4"/>
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A173" s="4"/>
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A174" s="4"/>
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A175" s="4"/>
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A176" s="4"/>
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A179" s="4"/>
+      <c r="B179" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>